--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,121 +40,109 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
     <t>illegal</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>negative</t>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>boring</t>
   </si>
   <si>
     <t>worse</t>
   </si>
   <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>shocking</t>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>sick</t>
   </si>
   <si>
     <t>weird</t>
   </si>
   <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>wrong</t>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>scary</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>scary</t>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>better</t>
   </si>
   <si>
     <t>good</t>
@@ -163,19 +151,16 @@
     <t>important</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>wow</t>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>many</t>
   </si>
   <si>
     <t>social</t>
-  </si>
-  <si>
-    <t>documentary</t>
   </si>
   <si>
     <t>positive</t>
@@ -536,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -608,10 +593,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -626,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -658,10 +643,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -676,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -708,10 +693,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -726,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -755,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.8666666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9423076923076923</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -823,31 +808,31 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <v>0.8</v>
+      </c>
+      <c r="L7">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>24</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>6</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7">
-        <v>0.82</v>
-      </c>
-      <c r="L7">
-        <v>41</v>
-      </c>
-      <c r="M7">
-        <v>41</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -855,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K8">
         <v>0.6666666666666666</v>
@@ -905,13 +890,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8939393939393939</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C9">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -923,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.6</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -947,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -955,13 +940,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8888888888888888</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -973,31 +958,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="L10">
+        <v>36</v>
+      </c>
+      <c r="M10">
+        <v>36</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>39</v>
-      </c>
-      <c r="M10">
-        <v>39</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1005,13 +990,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1023,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1047,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1055,13 +1040,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1073,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.4482758620689655</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L12">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M12">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1097,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1105,13 +1090,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.631578947368421</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1123,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.3888888888888889</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1155,13 +1140,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1173,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.1875</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="L14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1197,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1205,13 +1190,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1223,19 +1208,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.04280510018214936</v>
+        <v>0.04007285974499089</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1247,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1051</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1255,13 +1240,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5384615384615384</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1274,30 +1259,6 @@
       </c>
       <c r="H16">
         <v>6</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16">
-        <v>0.02120141342756184</v>
-      </c>
-      <c r="L16">
-        <v>6</v>
-      </c>
-      <c r="M16">
-        <v>6</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1305,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5384615384615384</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -1323,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1331,13 +1292,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5294117647058824</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1349,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1360,10 +1321,10 @@
         <v>0.5</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1375,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1383,13 +1344,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.4855072463768116</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1401,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1409,13 +1370,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4855072463768116</v>
+        <v>0.45</v>
       </c>
       <c r="C21">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1427,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1435,13 +1396,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4642857142857143</v>
+        <v>0.4375</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1453,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1487,7 +1448,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.375</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -1505,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1513,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.375</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1531,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1539,13 +1500,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3617021276595745</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1557,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1565,13 +1526,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3529411764705883</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1583,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1591,13 +1552,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3478260869565217</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1609,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1617,13 +1578,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2916666666666667</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1635,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1643,7 +1604,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2857142857142857</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -1661,111 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.282051282051282</v>
-      </c>
-      <c r="C31">
-        <v>11</v>
-      </c>
-      <c r="D31">
-        <v>11</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="C32">
-        <v>9</v>
-      </c>
-      <c r="D32">
-        <v>9</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.25</v>
-      </c>
-      <c r="C33">
-        <v>7</v>
-      </c>
-      <c r="D33">
-        <v>7</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.08974358974358974</v>
-      </c>
-      <c r="C34">
-        <v>7</v>
-      </c>
-      <c r="D34">
-        <v>7</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
